--- a/FIZ.xlsx
+++ b/FIZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03b5395bde372c11/Desktop/ETH/8.Semester/SoC for Data Analytics and Machine Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03b5395bde372c11/Desktop/ETH/8.Semester/SoC for Data Analytics and Machine Learning/mini-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="534" documentId="8_{0D7CDC9F-7CBD-4617-968F-372AD14FA6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{032EE210-B4F1-4458-A58F-5BF153EBB387}"/>
+  <xr:revisionPtr revIDLastSave="541" documentId="8_{0D7CDC9F-7CBD-4617-968F-372AD14FA6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4C1D36B-DF17-4F12-9BC3-CA89E80D1919}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{0F06F478-D836-4A84-BE4A-669138BDEC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F06F478-D836-4A84-BE4A-669138BDEC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="14">
   <si>
     <t>Focus</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Distance\Zoom</t>
   </si>
   <si>
-    <t>Diameter</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -77,15 +74,46 @@
     <t>5% step</t>
   </si>
   <si>
-    <t>for given zoom and focus level (in %) the table yields distance (in m) for which the image is in focus*, Iris was set to 2200 (lit room), up until 7m</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Goal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: for given zoom and focus level (in %) the table yields distance (in m) for which the image is in focus*, Iris was set to 2200 (lit room), up until 7m</t>
+    </r>
+  </si>
+  <si>
+    <t>Measured results (in m)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -598,30 +626,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5CA4B5-0F1D-412C-B92F-8CABF02CC3A4}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="95" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -632,11 +657,8 @@
         <f>B3/20</f>
         <v>290</v>
       </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -648,7 +670,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -660,12 +682,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -703,43 +730,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>0</v>
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>0.1</v>
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>0.2</v>
       </c>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>0.3</v>
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>0.4</v>
       </c>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>0.5</v>
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>0.6</v>
       </c>
@@ -748,7 +775,7 @@
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>0.7</v>
       </c>
@@ -763,7 +790,7 @@
       </c>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>0.8</v>
       </c>
@@ -784,7 +811,7 @@
       </c>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>0.9</v>
       </c>
@@ -811,7 +838,7 @@
       </c>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>1</v>
       </c>
@@ -843,17 +870,17 @@
       <c r="K21" s="1"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>4</v>
       </c>
@@ -906,7 +933,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>0.6</v>
       </c>
@@ -915,7 +942,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>0.65</v>
       </c>
@@ -927,7 +954,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>0.7</v>
       </c>
@@ -948,7 +975,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>0.75</v>
       </c>
@@ -975,7 +1002,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>0.8</v>
       </c>
@@ -1008,7 +1035,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>0.85</v>
       </c>
@@ -1044,7 +1071,7 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>0.9</v>
       </c>
@@ -1089,7 +1116,7 @@
       </c>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>0.95</v>
       </c>
@@ -1134,7 +1161,7 @@
       </c>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>1</v>
       </c>
@@ -1184,9 +1211,9 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
@@ -1194,7 +1221,7 @@
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>7</v>
       </c>
@@ -1232,30 +1259,30 @@
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>1.4</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1269,27 +1296,27 @@
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>1.5</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -1306,24 +1333,24 @@
       <c r="O41" s="19"/>
       <c r="P41" s="19"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>1.6</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1343,21 +1370,21 @@
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>1.8</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1380,21 +1407,21 @@
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>2</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -1417,18 +1444,18 @@
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>2.2000000000000002</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1454,18 +1481,18 @@
       <c r="O45" s="19"/>
       <c r="P45" s="19"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>2.5</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -1491,15 +1518,15 @@
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>2.8</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1528,15 +1555,15 @@
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>3</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -1565,15 +1592,15 @@
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>3.5</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -1597,12 +1624,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>4</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1629,12 +1656,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>4.5</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1661,12 +1688,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>5</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1693,12 +1720,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>5.5</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1730,12 +1757,12 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>6</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>10</v>
@@ -1762,7 +1789,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>7</v>
       </c>
@@ -1826,5 +1853,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>